--- a/Employee_Reports35/John Errol Para Marino Q0393.xlsx
+++ b/Employee_Reports35/John Errol Para Marino Q0393.xlsx
@@ -563,11 +563,11 @@
         </is>
       </c>
       <c r="H3" s="3" t="n">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="I3" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J3" s="3" t="inlineStr">
@@ -612,11 +612,11 @@
         </is>
       </c>
       <c r="H4" s="3" t="n">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="I4" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J4" s="3" t="inlineStr">
@@ -661,11 +661,11 @@
         </is>
       </c>
       <c r="H5" s="3" t="n">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="I5" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J5" s="3" t="inlineStr">
@@ -710,11 +710,11 @@
         </is>
       </c>
       <c r="H6" s="3" t="n">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="I6" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J6" s="3" t="inlineStr">
@@ -759,11 +759,11 @@
         </is>
       </c>
       <c r="H7" s="3" t="n">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="I7" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J7" s="3" t="inlineStr">

--- a/Employee_Reports35/John Errol Para Marino Q0393.xlsx
+++ b/Employee_Reports35/John Errol Para Marino Q0393.xlsx
@@ -563,11 +563,11 @@
         </is>
       </c>
       <c r="H3" s="3" t="n">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="I3" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J3" s="3" t="inlineStr">
@@ -612,11 +612,11 @@
         </is>
       </c>
       <c r="H4" s="3" t="n">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="I4" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J4" s="3" t="inlineStr">
@@ -661,11 +661,11 @@
         </is>
       </c>
       <c r="H5" s="3" t="n">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="I5" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J5" s="3" t="inlineStr">
@@ -710,11 +710,11 @@
         </is>
       </c>
       <c r="H6" s="3" t="n">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="I6" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J6" s="3" t="inlineStr">
@@ -759,11 +759,11 @@
         </is>
       </c>
       <c r="H7" s="3" t="n">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="I7" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J7" s="3" t="inlineStr">
